--- a/2022/Symphony/MARCH/12.03.2022/MC Bank Statement March-2022.xlsx
+++ b/2022/Symphony/MARCH/12.03.2022/MC Bank Statement March-2022.xlsx
@@ -9221,11 +9221,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:Q3"/>
@@ -9240,6 +9235,11 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="O4:O5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -33808,8 +33808,8 @@
   </sheetPr>
   <dimension ref="A1:Y218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -33821,7 +33821,7 @@
     <col min="5" max="5" width="28.5703125" style="3" customWidth="1"/>
     <col min="6" max="6" width="4.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="18.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="3.42578125" style="1" customWidth="1"/>
     <col min="9" max="12" width="10.7109375" style="1" customWidth="1"/>
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
